--- a/data/manuscript_data/Supplementary Table 2.xlsx
+++ b/data/manuscript_data/Supplementary Table 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakegearon/CursorProjects/rulesofriveravulsion/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakegearon/projects/rulesofriveravulsion/data/manuscript_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1C4765-BC3D-BF4F-B2CE-3C6312BAA047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D58EE-732D-3141-A191-07E7E56E5C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34620" yWindow="2280" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fig2_data copy" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1479,16 +1479,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="45.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="17.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="1" customWidth="1"/>
+    <col min="18" max="30" width="10.83203125" style="1"/>
+    <col min="31" max="31" width="19.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="22" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5" style="1" customWidth="1"/>
+    <col min="34" max="40" width="10.83203125" style="1"/>
+    <col min="41" max="41" width="21.1640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.1640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" customWidth="1"/>
+    <col min="44" max="60" width="10.83203125" style="1"/>
+    <col min="61" max="61" width="18.5" style="1" customWidth="1"/>
+    <col min="62" max="62" width="18.1640625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="18.83203125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="12.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="18.83203125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="19.1640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="18" style="1" customWidth="1"/>
+    <col min="68" max="68" width="19.33203125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="20.83203125" style="1" customWidth="1"/>
+    <col min="70" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" x14ac:dyDescent="0.2">
